--- a/NNOGA Gantt Chart .xlsx
+++ b/NNOGA Gantt Chart .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Alan/Research/Thesis /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Ciroski\Desktop\Repos\Neural-Network-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250E1E5D-078F-497A-AE37-FE306EA18420}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="878" yWindow="-98" windowWidth="19739" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -27,10 +28,16 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,13 +47,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vertex42</author>
     <author>Vertex42.com Templates</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>WBS</t>
   </si>
@@ -1548,11 +1555,14 @@
   <si>
     <t>Follow Outline</t>
   </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
@@ -2893,7 +2903,7 @@
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3508,70 +3518,22 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="86" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="53" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="53" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3619,9 +3581,96 @@
     <xf numFmtId="167" fontId="53" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="47" fillId="24" borderId="0" xfId="40" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="37" fillId="25" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="68" fillId="23" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="72" fillId="23" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="71" fillId="23" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="23" borderId="0" xfId="40" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="50" fillId="27" borderId="16" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="61" fillId="0" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="61" fillId="0" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="61" fillId="0" borderId="45" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="61" fillId="0" borderId="47" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="27" borderId="16" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="40" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="40" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3674,7 +3723,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="9">
     <dxf>
       <border>
         <left style="thin">
@@ -3748,32 +3797,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3888,7 +3911,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3934,13 +3957,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>14288</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>100013</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -3952,7 +3975,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4002,7 +4025,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,7 +4080,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4141,7 +4164,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4196,7 +4219,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,34 +4540,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:ET58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="36" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" style="36" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="33" customWidth="1"/>
     <col min="6" max="6" width="12" style="202" customWidth="1"/>
     <col min="7" max="7" width="6" style="187" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="1.5" style="33" customWidth="1"/>
-    <col min="11" max="66" width="2.5" style="33" customWidth="1"/>
-    <col min="67" max="16384" width="9.1640625" style="34"/>
+    <col min="8" max="8" width="6.6640625" style="286" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="1.46484375" style="33" customWidth="1"/>
+    <col min="11" max="66" width="2.46484375" style="33" customWidth="1"/>
+    <col min="67" max="16384" width="9.1328125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="65" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:150" s="65" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="148" t="s">
         <v>137</v>
       </c>
@@ -4554,7 +4577,7 @@
       <c r="E1" s="62"/>
       <c r="F1" s="188"/>
       <c r="G1" s="176"/>
-      <c r="H1" s="63"/>
+      <c r="H1" s="272"/>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="64" t="s">
@@ -4578,23 +4601,23 @@
       <c r="AA1" s="63"/>
       <c r="AB1" s="63"/>
       <c r="AC1" s="63"/>
-      <c r="AD1" s="253" t="s">
+      <c r="AD1" s="235" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="253"/>
-      <c r="AG1" s="253"/>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="253"/>
-      <c r="AJ1" s="253"/>
-      <c r="AK1" s="253"/>
-      <c r="AL1" s="253"/>
-      <c r="AM1" s="253"/>
-      <c r="AN1" s="253"/>
-      <c r="AO1" s="253"/>
-      <c r="AP1" s="253"/>
-      <c r="AQ1" s="253"/>
-      <c r="AR1" s="253"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="235"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="235"/>
+      <c r="AL1" s="235"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
       <c r="AS1" s="63"/>
       <c r="AT1" s="63"/>
       <c r="AU1" s="63"/>
@@ -4618,7 +4641,7 @@
       <c r="BM1" s="63"/>
       <c r="BN1" s="63"/>
     </row>
-    <row r="2" spans="1:150" s="87" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:150" s="87" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="142" t="s">
         <v>138</v>
       </c>
@@ -4628,8 +4651,9 @@
       <c r="E2" s="86"/>
       <c r="F2" s="189"/>
       <c r="G2" s="177"/>
-    </row>
-    <row r="3" spans="1:150" s="127" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="273"/>
+    </row>
+    <row r="3" spans="1:150" s="127" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="123"/>
       <c r="B3" s="124"/>
       <c r="C3" s="124"/>
@@ -4637,6 +4661,7 @@
       <c r="E3" s="126"/>
       <c r="F3" s="190"/>
       <c r="G3" s="178"/>
+      <c r="H3" s="274"/>
       <c r="K3" s="145"/>
       <c r="L3" s="146"/>
       <c r="M3" s="146"/>
@@ -4694,202 +4719,202 @@
       <c r="BM3" s="146"/>
       <c r="BN3" s="147"/>
     </row>
-    <row r="4" spans="1:150" s="138" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:150" s="138" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="140"/>
       <c r="B4" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="260">
+      <c r="C4" s="244">
         <v>43569</v>
       </c>
-      <c r="D4" s="261"/>
-      <c r="E4" s="262"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="191"/>
       <c r="G4" s="179"/>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="275" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="144">
         <v>1</v>
       </c>
-      <c r="K4" s="258" t="str">
+      <c r="K4" s="242" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="258" t="str">
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="242" t="str">
         <f>"Week 2"</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="236"/>
-      <c r="T4" s="236"/>
-      <c r="U4" s="236"/>
-      <c r="V4" s="236"/>
-      <c r="W4" s="236"/>
-      <c r="X4" s="259"/>
-      <c r="Y4" s="267" t="str">
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="251" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="236"/>
-      <c r="AA4" s="236"/>
-      <c r="AB4" s="236"/>
-      <c r="AC4" s="236"/>
-      <c r="AD4" s="236"/>
-      <c r="AE4" s="268"/>
-      <c r="AF4" s="254" t="str">
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="252"/>
+      <c r="AF4" s="236" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="236"/>
-      <c r="AH4" s="236"/>
-      <c r="AI4" s="236"/>
-      <c r="AJ4" s="236"/>
-      <c r="AK4" s="236"/>
-      <c r="AL4" s="255"/>
-      <c r="AM4" s="247" t="str">
+      <c r="AG4" s="237"/>
+      <c r="AH4" s="237"/>
+      <c r="AI4" s="237"/>
+      <c r="AJ4" s="237"/>
+      <c r="AK4" s="237"/>
+      <c r="AL4" s="238"/>
+      <c r="AM4" s="265" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="236"/>
-      <c r="AO4" s="236"/>
-      <c r="AP4" s="236"/>
-      <c r="AQ4" s="236"/>
-      <c r="AR4" s="236"/>
-      <c r="AS4" s="248"/>
-      <c r="AT4" s="243" t="str">
+      <c r="AN4" s="237"/>
+      <c r="AO4" s="237"/>
+      <c r="AP4" s="237"/>
+      <c r="AQ4" s="237"/>
+      <c r="AR4" s="237"/>
+      <c r="AS4" s="266"/>
+      <c r="AT4" s="261" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="236"/>
-      <c r="AV4" s="236"/>
-      <c r="AW4" s="236"/>
-      <c r="AX4" s="236"/>
-      <c r="AY4" s="236"/>
-      <c r="AZ4" s="244"/>
-      <c r="BA4" s="249" t="str">
+      <c r="AU4" s="237"/>
+      <c r="AV4" s="237"/>
+      <c r="AW4" s="237"/>
+      <c r="AX4" s="237"/>
+      <c r="AY4" s="237"/>
+      <c r="AZ4" s="262"/>
+      <c r="BA4" s="267" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="236"/>
-      <c r="BC4" s="236"/>
-      <c r="BD4" s="236"/>
-      <c r="BE4" s="236"/>
-      <c r="BF4" s="236"/>
-      <c r="BG4" s="250"/>
-      <c r="BH4" s="235" t="str">
+      <c r="BB4" s="237"/>
+      <c r="BC4" s="237"/>
+      <c r="BD4" s="237"/>
+      <c r="BE4" s="237"/>
+      <c r="BF4" s="237"/>
+      <c r="BG4" s="268"/>
+      <c r="BH4" s="255" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="236"/>
-      <c r="BJ4" s="236"/>
-      <c r="BK4" s="236"/>
-      <c r="BL4" s="236"/>
-      <c r="BM4" s="236"/>
-      <c r="BN4" s="237"/>
-    </row>
-    <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="237"/>
+      <c r="BJ4" s="237"/>
+      <c r="BK4" s="237"/>
+      <c r="BL4" s="237"/>
+      <c r="BM4" s="237"/>
+      <c r="BN4" s="256"/>
+    </row>
+    <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="141"/>
       <c r="B5" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="260" t="s">
+      <c r="C5" s="244" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="262"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="246"/>
       <c r="F5" s="192"/>
       <c r="G5" s="180"/>
-      <c r="H5" s="139"/>
+      <c r="H5" s="276"/>
       <c r="I5" s="139"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="264">
+      <c r="K5" s="248">
         <f>K6</f>
         <v>43570</v>
       </c>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="264">
+      <c r="L5" s="240"/>
+      <c r="M5" s="240"/>
+      <c r="N5" s="240"/>
+      <c r="O5" s="240"/>
+      <c r="P5" s="240"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="248">
         <f>R6</f>
         <v>43577</v>
       </c>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="269">
+      <c r="S5" s="240"/>
+      <c r="T5" s="240"/>
+      <c r="U5" s="240"/>
+      <c r="V5" s="240"/>
+      <c r="W5" s="240"/>
+      <c r="X5" s="249"/>
+      <c r="Y5" s="253">
         <f>Y6</f>
         <v>43584</v>
       </c>
-      <c r="Z5" s="239"/>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="239"/>
-      <c r="AC5" s="239"/>
-      <c r="AD5" s="239"/>
-      <c r="AE5" s="270"/>
-      <c r="AF5" s="256">
+      <c r="Z5" s="240"/>
+      <c r="AA5" s="240"/>
+      <c r="AB5" s="240"/>
+      <c r="AC5" s="240"/>
+      <c r="AD5" s="240"/>
+      <c r="AE5" s="254"/>
+      <c r="AF5" s="239">
         <f>AF6</f>
         <v>43591</v>
       </c>
-      <c r="AG5" s="239"/>
-      <c r="AH5" s="239"/>
-      <c r="AI5" s="239"/>
-      <c r="AJ5" s="239"/>
-      <c r="AK5" s="239"/>
-      <c r="AL5" s="257"/>
-      <c r="AM5" s="241">
+      <c r="AG5" s="240"/>
+      <c r="AH5" s="240"/>
+      <c r="AI5" s="240"/>
+      <c r="AJ5" s="240"/>
+      <c r="AK5" s="240"/>
+      <c r="AL5" s="241"/>
+      <c r="AM5" s="259">
         <f>AM6</f>
         <v>43598</v>
       </c>
-      <c r="AN5" s="239"/>
-      <c r="AO5" s="239"/>
-      <c r="AP5" s="239"/>
-      <c r="AQ5" s="239"/>
-      <c r="AR5" s="239"/>
-      <c r="AS5" s="242"/>
-      <c r="AT5" s="245">
+      <c r="AN5" s="240"/>
+      <c r="AO5" s="240"/>
+      <c r="AP5" s="240"/>
+      <c r="AQ5" s="240"/>
+      <c r="AR5" s="240"/>
+      <c r="AS5" s="260"/>
+      <c r="AT5" s="263">
         <f>AT6</f>
         <v>43605</v>
       </c>
-      <c r="AU5" s="239"/>
-      <c r="AV5" s="239"/>
-      <c r="AW5" s="239"/>
-      <c r="AX5" s="239"/>
-      <c r="AY5" s="239"/>
-      <c r="AZ5" s="246"/>
-      <c r="BA5" s="251">
+      <c r="AU5" s="240"/>
+      <c r="AV5" s="240"/>
+      <c r="AW5" s="240"/>
+      <c r="AX5" s="240"/>
+      <c r="AY5" s="240"/>
+      <c r="AZ5" s="264"/>
+      <c r="BA5" s="269">
         <f>BA6</f>
         <v>43612</v>
       </c>
-      <c r="BB5" s="239"/>
-      <c r="BC5" s="239"/>
-      <c r="BD5" s="239"/>
-      <c r="BE5" s="239"/>
-      <c r="BF5" s="239"/>
-      <c r="BG5" s="252"/>
-      <c r="BH5" s="238">
+      <c r="BB5" s="240"/>
+      <c r="BC5" s="240"/>
+      <c r="BD5" s="240"/>
+      <c r="BE5" s="240"/>
+      <c r="BF5" s="240"/>
+      <c r="BG5" s="270"/>
+      <c r="BH5" s="257">
         <f>BH6</f>
         <v>43619</v>
       </c>
-      <c r="BI5" s="239"/>
-      <c r="BJ5" s="239"/>
-      <c r="BK5" s="239"/>
-      <c r="BL5" s="239"/>
-      <c r="BM5" s="239"/>
-      <c r="BN5" s="240"/>
-    </row>
-    <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI5" s="240"/>
+      <c r="BJ5" s="240"/>
+      <c r="BK5" s="240"/>
+      <c r="BL5" s="240"/>
+      <c r="BM5" s="240"/>
+      <c r="BN5" s="258"/>
+    </row>
+    <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="77"/>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -4897,7 +4922,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="193"/>
       <c r="G6" s="181"/>
-      <c r="H6" s="78"/>
+      <c r="H6" s="277"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
       <c r="K6" s="92">
@@ -5125,7 +5150,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="7" spans="1:150" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:150" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
@@ -5147,7 +5172,7 @@
       <c r="G7" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="278" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="109" t="s">
@@ -5463,7 +5488,7 @@
       <c r="ES7" s="75"/>
       <c r="ET7" s="75"/>
     </row>
-    <row r="8" spans="1:150" s="37" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:150" s="37" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="117" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -5535,7 +5560,7 @@
       <c r="BM8" s="42"/>
       <c r="BN8" s="42"/>
     </row>
-    <row r="9" spans="1:150" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:150" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="118" t="str">
         <f t="shared" ref="A9:A17" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -5558,7 +5583,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="129">
         <f>IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
@@ -5622,7 +5647,7 @@
       <c r="BM9" s="47"/>
       <c r="BN9" s="47"/>
     </row>
-    <row r="10" spans="1:150" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:150" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="118" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
@@ -5645,7 +5670,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="129">
         <f t="shared" ref="I10:I37" si="10">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
@@ -5709,7 +5734,7 @@
       <c r="BM10" s="47"/>
       <c r="BN10" s="47"/>
     </row>
-    <row r="11" spans="1:150" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:150" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="118" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
@@ -5733,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="129">
         <f t="shared" si="10"/>
@@ -5797,7 +5822,7 @@
       <c r="BM11" s="47"/>
       <c r="BN11" s="47"/>
     </row>
-    <row r="12" spans="1:150" s="45" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:150" s="45" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="118" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
@@ -5813,7 +5838,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G12" s="183"/>
-      <c r="H12" s="112"/>
+      <c r="H12" s="279"/>
       <c r="I12" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5876,7 +5901,7 @@
       <c r="BM12" s="47"/>
       <c r="BN12" s="47"/>
     </row>
-    <row r="13" spans="1:150" s="45" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:150" s="45" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
@@ -5892,7 +5917,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G13" s="183"/>
-      <c r="H13" s="112"/>
+      <c r="H13" s="279"/>
       <c r="I13" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5955,7 +5980,7 @@
       <c r="BM13" s="47"/>
       <c r="BN13" s="47"/>
     </row>
-    <row r="14" spans="1:150" s="45" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:150" s="45" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.2</v>
@@ -5971,7 +5996,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G14" s="183"/>
-      <c r="H14" s="112"/>
+      <c r="H14" s="279"/>
       <c r="I14" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6034,7 +6059,7 @@
       <c r="BM14" s="47"/>
       <c r="BN14" s="47"/>
     </row>
-    <row r="15" spans="1:150" s="45" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:150" s="45" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="118" t="str">
         <f t="shared" si="8"/>
         <v>1.5</v>
@@ -6050,7 +6075,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G15" s="183"/>
-      <c r="H15" s="112"/>
+      <c r="H15" s="279"/>
       <c r="I15" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6113,7 +6138,7 @@
       <c r="BM15" s="47"/>
       <c r="BN15" s="47"/>
     </row>
-    <row r="16" spans="1:150" s="45" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:150" s="45" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="118" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
@@ -6129,7 +6154,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G16" s="183"/>
-      <c r="H16" s="112"/>
+      <c r="H16" s="279"/>
       <c r="I16" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6192,7 +6217,7 @@
       <c r="BM16" s="47"/>
       <c r="BN16" s="47"/>
     </row>
-    <row r="17" spans="1:66" s="45" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:66" s="45" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="118" t="str">
         <f t="shared" si="8"/>
         <v>1.7</v>
@@ -6208,7 +6233,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G17" s="183"/>
-      <c r="H17" s="112"/>
+      <c r="H17" s="279"/>
       <c r="I17" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6271,7 +6296,7 @@
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
     </row>
-    <row r="18" spans="1:66" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:66" s="43" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A18" s="119" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -6279,20 +6304,6 @@
       <c r="B18" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G18" s="183"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
       <c r="N18" s="52"/>
@@ -6349,7 +6360,7 @@
       <c r="BM18" s="52"/>
       <c r="BN18" s="52"/>
     </row>
-    <row r="19" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="118" t="str">
         <f t="shared" ref="A19:A24" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -6357,17 +6368,23 @@
       <c r="B19" s="48" t="s">
         <v>144</v>
       </c>
+      <c r="C19" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E19" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="196" t="s">
+        <v>161</v>
       </c>
       <c r="G19" s="183"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="129">
+      <c r="H19" s="279">
+        <v>1</v>
+      </c>
+      <c r="I19" s="129" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="121"/>
       <c r="K19" s="47"/>
@@ -6427,7 +6444,7 @@
       <c r="BM19" s="47"/>
       <c r="BN19" s="47"/>
     </row>
-    <row r="20" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="118" t="str">
         <f t="shared" si="11"/>
         <v>2.2</v>
@@ -6435,14 +6452,14 @@
       <c r="B20" s="48" t="s">
         <v>145</v>
       </c>
+      <c r="C20" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D20" s="46"/>
       <c r="E20" s="112"/>
-      <c r="F20" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="F20" s="196"/>
       <c r="G20" s="183"/>
-      <c r="H20" s="112"/>
+      <c r="H20" s="279"/>
       <c r="I20" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6505,7 +6522,7 @@
       <c r="BM20" s="47"/>
       <c r="BN20" s="47"/>
     </row>
-    <row r="21" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="118" t="str">
         <f t="shared" si="11"/>
         <v>2.3</v>
@@ -6513,17 +6530,23 @@
       <c r="B21" s="48" t="s">
         <v>146</v>
       </c>
+      <c r="C21" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D21" s="46"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E21" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="196" t="s">
+        <v>161</v>
       </c>
       <c r="G21" s="183"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="129">
+      <c r="H21" s="279">
+        <v>1</v>
+      </c>
+      <c r="I21" s="129" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="121"/>
       <c r="K21" s="47"/>
@@ -6583,7 +6606,7 @@
       <c r="BM21" s="47"/>
       <c r="BN21" s="47"/>
     </row>
-    <row r="22" spans="1:66" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:66" s="45" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="118" t="str">
         <f t="shared" si="11"/>
         <v>2.4</v>
@@ -6591,14 +6614,14 @@
       <c r="B22" s="48" t="s">
         <v>148</v>
       </c>
+      <c r="C22" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" s="46"/>
       <c r="E22" s="112"/>
-      <c r="F22" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="F22" s="196"/>
       <c r="G22" s="183"/>
-      <c r="H22" s="112"/>
+      <c r="H22" s="279"/>
       <c r="I22" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6661,19 +6684,22 @@
       <c r="BM22" s="47"/>
       <c r="BN22" s="47"/>
     </row>
-    <row r="23" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="118" t="str">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>147</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="112"/>
       <c r="F23" s="196"/>
       <c r="G23" s="183"/>
-      <c r="H23" s="112"/>
+      <c r="H23" s="279"/>
       <c r="I23" s="129"/>
       <c r="J23" s="121"/>
       <c r="K23" s="47"/>
@@ -6733,7 +6759,7 @@
       <c r="BM23" s="47"/>
       <c r="BN23" s="47"/>
     </row>
-    <row r="24" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="118" t="str">
         <f t="shared" si="11"/>
         <v>2.6</v>
@@ -6741,17 +6767,23 @@
       <c r="B24" s="45" t="s">
         <v>153</v>
       </c>
+      <c r="C24" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D24" s="46"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E24" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="196" t="s">
+        <v>161</v>
       </c>
       <c r="G24" s="183"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="129">
+      <c r="H24" s="279">
+        <v>1</v>
+      </c>
+      <c r="I24" s="129" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J24" s="121"/>
       <c r="K24" s="47"/>
@@ -6811,7 +6843,7 @@
       <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
     </row>
-    <row r="25" spans="1:66" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:66" s="43" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A25" s="119" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -6819,21 +6851,6 @@
       <c r="B25" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G25" s="183"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
       <c r="O25" s="52"/>
@@ -6889,7 +6906,7 @@
       <c r="BM25" s="52"/>
       <c r="BN25" s="52"/>
     </row>
-    <row r="26" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A26" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -6904,7 +6921,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G26" s="183"/>
-      <c r="H26" s="112"/>
+      <c r="H26" s="279"/>
       <c r="I26" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6967,7 +6984,7 @@
       <c r="BM26" s="47"/>
       <c r="BN26" s="47"/>
     </row>
-    <row r="27" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -6982,7 +6999,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G27" s="183"/>
-      <c r="H27" s="112"/>
+      <c r="H27" s="279"/>
       <c r="I27" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7045,7 +7062,7 @@
       <c r="BM27" s="47"/>
       <c r="BN27" s="47"/>
     </row>
-    <row r="28" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -7060,7 +7077,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G28" s="183"/>
-      <c r="H28" s="112"/>
+      <c r="H28" s="279"/>
       <c r="I28" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7123,7 +7140,7 @@
       <c r="BM28" s="47"/>
       <c r="BN28" s="47"/>
     </row>
-    <row r="29" spans="1:66" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:66" s="45" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A29" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -7138,7 +7155,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G29" s="183"/>
-      <c r="H29" s="112"/>
+      <c r="H29" s="279"/>
       <c r="I29" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7201,7 +7218,7 @@
       <c r="BM29" s="47"/>
       <c r="BN29" s="47"/>
     </row>
-    <row r="30" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="118" t="str">
         <f t="shared" ref="A30" si="12">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -7216,7 +7233,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G30" s="183"/>
-      <c r="H30" s="112"/>
+      <c r="H30" s="279"/>
       <c r="I30" s="129">
         <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
         <v>0</v>
@@ -7279,7 +7296,7 @@
       <c r="BM30" s="47"/>
       <c r="BN30" s="47"/>
     </row>
-    <row r="31" spans="1:66" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:66" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.6</v>
@@ -7294,7 +7311,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G31" s="183"/>
-      <c r="H31" s="112"/>
+      <c r="H31" s="279"/>
       <c r="I31" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7357,7 +7374,7 @@
       <c r="BM31" s="47"/>
       <c r="BN31" s="47"/>
     </row>
-    <row r="32" spans="1:66" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:66" s="43" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A32" s="119" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -7365,21 +7382,6 @@
       <c r="B32" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G32" s="183"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="122"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
@@ -7435,7 +7437,7 @@
       <c r="BM32" s="52"/>
       <c r="BN32" s="52"/>
     </row>
-    <row r="33" spans="1:88" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:88" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -7450,7 +7452,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G33" s="183"/>
-      <c r="H33" s="112"/>
+      <c r="H33" s="279"/>
       <c r="I33" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7513,7 +7515,7 @@
       <c r="BM33" s="47"/>
       <c r="BN33" s="47"/>
     </row>
-    <row r="34" spans="1:88" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:88" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -7528,7 +7530,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G34" s="183"/>
-      <c r="H34" s="112"/>
+      <c r="H34" s="279"/>
       <c r="I34" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7591,7 +7593,7 @@
       <c r="BM34" s="47"/>
       <c r="BN34" s="47"/>
     </row>
-    <row r="35" spans="1:88" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:88" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
@@ -7606,7 +7608,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G35" s="183"/>
-      <c r="H35" s="112"/>
+      <c r="H35" s="279"/>
       <c r="I35" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7669,7 +7671,7 @@
       <c r="BM35" s="47"/>
       <c r="BN35" s="47"/>
     </row>
-    <row r="36" spans="1:88" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:88" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
@@ -7684,7 +7686,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G36" s="183"/>
-      <c r="H36" s="112"/>
+      <c r="H36" s="279"/>
       <c r="I36" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7747,7 +7749,7 @@
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
     </row>
-    <row r="37" spans="1:88" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:88" s="45" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.5</v>
@@ -7762,7 +7764,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G37" s="183"/>
-      <c r="H37" s="112"/>
+      <c r="H37" s="279"/>
       <c r="I37" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7825,7 +7827,7 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="119" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
@@ -7834,20 +7836,14 @@
         <v>149</v>
       </c>
       <c r="C38" s="43"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G38" s="183"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="129">
-        <f t="shared" ref="I38:I43" si="13">IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
       <c r="L38" s="122"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
@@ -7926,7 +7922,7 @@
       <c r="CI38" s="122"/>
       <c r="CJ38" s="122"/>
     </row>
-    <row r="39" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
@@ -7934,18 +7930,23 @@
       <c r="B39" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="45"/>
+      <c r="C39" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D39" s="46"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E39" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="196" t="s">
+        <v>161</v>
       </c>
       <c r="G39" s="183"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="129">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="H39" s="279">
+        <v>1</v>
+      </c>
+      <c r="I39" s="129" t="e">
+        <f t="shared" ref="I38:I43" si="13">IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J39" s="121"/>
       <c r="K39" s="47"/>
@@ -8005,7 +8006,7 @@
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
     </row>
-    <row r="40" spans="1:88" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:88" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
@@ -8013,18 +8014,23 @@
       <c r="B40" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="45"/>
+      <c r="C40" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" s="46"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E40" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="196" t="s">
+        <v>161</v>
       </c>
       <c r="G40" s="183"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="129">
+      <c r="H40" s="279">
+        <v>1</v>
+      </c>
+      <c r="I40" s="129" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J40" s="121"/>
       <c r="K40" s="47"/>
@@ -8084,7 +8090,7 @@
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
     </row>
-    <row r="41" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
@@ -8092,18 +8098,23 @@
       <c r="B41" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="45"/>
+      <c r="C41" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="D41" s="46"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E41" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="196" t="s">
+        <v>161</v>
       </c>
       <c r="G41" s="183"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="129">
+      <c r="H41" s="279">
+        <v>1</v>
+      </c>
+      <c r="I41" s="129" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J41" s="121"/>
       <c r="K41" s="47"/>
@@ -8163,7 +8174,7 @@
       <c r="BM41" s="47"/>
       <c r="BN41" s="47"/>
     </row>
-    <row r="42" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.4</v>
@@ -8179,7 +8190,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G42" s="183"/>
-      <c r="H42" s="112"/>
+      <c r="H42" s="279"/>
       <c r="I42" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -8242,7 +8253,7 @@
       <c r="BM42" s="47"/>
       <c r="BN42" s="47"/>
     </row>
-    <row r="43" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.5</v>
@@ -8258,7 +8269,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="183"/>
-      <c r="H43" s="112"/>
+      <c r="H43" s="279"/>
       <c r="I43" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -8321,7 +8332,7 @@
       <c r="BM43" s="47"/>
       <c r="BN43" s="47"/>
     </row>
-    <row r="44" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
@@ -8330,20 +8341,14 @@
         <v>150</v>
       </c>
       <c r="C44" s="43"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="196" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="183"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="129">
-        <f t="shared" ref="I44:I49" si="14">IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="122"/>
       <c r="M44" s="122"/>
       <c r="N44" s="122"/>
@@ -8409,7 +8414,7 @@
       <c r="BV44" s="122"/>
       <c r="BW44" s="122"/>
     </row>
-    <row r="45" spans="1:88" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:88" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A45" s="203" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
@@ -8425,9 +8430,9 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G45" s="209"/>
-      <c r="H45" s="207"/>
+      <c r="H45" s="280"/>
       <c r="I45" s="210">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I44:I49" si="14">IF(OR(F45=0,E45=0),0,NETWORKDAYS(E45,F45))</f>
         <v>0</v>
       </c>
       <c r="J45" s="211"/>
@@ -8488,7 +8493,7 @@
       <c r="BM45" s="212"/>
       <c r="BN45" s="212"/>
     </row>
-    <row r="46" spans="1:88" s="223" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:88" s="223" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="224" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.2</v>
@@ -8504,7 +8509,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G46" s="230"/>
-      <c r="H46" s="228"/>
+      <c r="H46" s="281"/>
       <c r="I46" s="231">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8567,7 +8572,7 @@
       <c r="BM46" s="222"/>
       <c r="BN46" s="222"/>
     </row>
-    <row r="47" spans="1:88" s="234" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:88" s="234" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="224" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.3</v>
@@ -8583,7 +8588,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G47" s="230"/>
-      <c r="H47" s="228"/>
+      <c r="H47" s="281"/>
       <c r="I47" s="231">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8646,7 +8651,7 @@
       <c r="BM47" s="233"/>
       <c r="BN47" s="233"/>
     </row>
-    <row r="48" spans="1:88" s="234" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:88" s="234" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="224" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.4</v>
@@ -8662,7 +8667,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G48" s="230"/>
-      <c r="H48" s="228"/>
+      <c r="H48" s="281"/>
       <c r="I48" s="231">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8725,7 +8730,7 @@
       <c r="BM48" s="233"/>
       <c r="BN48" s="233"/>
     </row>
-    <row r="49" spans="1:66" s="234" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:66" s="234" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="213" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.5</v>
@@ -8741,7 +8746,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G49" s="219"/>
-      <c r="H49" s="217"/>
+      <c r="H49" s="282"/>
       <c r="I49" s="220">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8804,7 +8809,7 @@
       <c r="BM49" s="233"/>
       <c r="BN49" s="233"/>
     </row>
-    <row r="50" spans="1:66" ht="18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:66" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="44"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -8819,7 +8824,7 @@
       <c r="I50" s="132"/>
       <c r="J50" s="121"/>
     </row>
-    <row r="51" spans="1:66" ht="18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:66" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A51" s="44"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
@@ -8831,7 +8836,7 @@
       <c r="I51" s="132"/>
       <c r="J51" s="121"/>
     </row>
-    <row r="52" spans="1:66" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="133" t="s">
         <v>1</v>
       </c>
@@ -8841,11 +8846,11 @@
       <c r="E52" s="70"/>
       <c r="F52" s="198"/>
       <c r="G52" s="184"/>
-      <c r="H52" s="70"/>
+      <c r="H52" s="283"/>
       <c r="I52" s="70"/>
       <c r="J52" s="60"/>
     </row>
-    <row r="53" spans="1:66" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:66" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A53" s="134" t="s">
         <v>76</v>
       </c>
@@ -8855,10 +8860,10 @@
       <c r="E53" s="136"/>
       <c r="F53" s="199"/>
       <c r="G53" s="185"/>
-      <c r="H53" s="135"/>
+      <c r="H53" s="284"/>
       <c r="I53" s="137"/>
     </row>
-    <row r="54" spans="1:66" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:66" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A54" s="119" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -8874,7 +8879,7 @@
       <c r="H54" s="51"/>
       <c r="I54" s="130"/>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A55" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -8898,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A56" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -8922,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A57" s="118" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -8946,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A58" s="59"/>
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
@@ -8954,12 +8959,20 @@
       <c r="E58" s="60"/>
       <c r="F58" s="201"/>
       <c r="G58" s="186"/>
-      <c r="H58" s="60"/>
+      <c r="H58" s="285"/>
       <c r="I58" s="60"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8971,14 +8984,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H53:H57 H50:H51 H8:H11">
@@ -9000,7 +9005,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN29 K31:BN37">
+  <conditionalFormatting sqref="K8:BN17 K31:BN31 K19:BN24 L18:BN18 K26:BN29 M25:BN25 K33:BN37 M32:BN32">
     <cfRule type="expression" dxfId="7" priority="52">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -9008,7 +9013,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN29 K39:BN43 K45:BN45 K31:BN37">
+  <conditionalFormatting sqref="K6:BN17 K39:BN43 K45:BN45 K31:BN31 K19:BN24 L18:BN18 K26:BN29 M25:BN25 K33:BN37 M32:BN32">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -9035,10 +9040,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AD1:AR1" r:id="rId1" display="Learn about the Pro version"/>
+    <hyperlink ref="AD1:AR1" r:id="rId1" display="Learn about the Pro version" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId2"/>
@@ -9059,13 +9064,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>14288</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
+                    <xdr:colOff>100013</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -9073,11 +9078,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -9104,82 +9107,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="90.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="13"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.46484375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="90.46484375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="13"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="149" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A4" s="150" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="25"/>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="B5" s="151" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B7" s="151" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B9" s="149" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B11" s="152" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A13" s="271" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="271"/>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>80</v>
@@ -9187,7 +9190,7 @@
       <c r="C15" s="155"/>
       <c r="D15" s="155"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="153"/>
       <c r="B16" s="156" t="s">
         <v>81</v>
@@ -9195,19 +9198,19 @@
       <c r="C16" s="155"/>
       <c r="D16" s="155"/>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A17" s="157"/>
       <c r="B17" s="156" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A18" s="157"/>
       <c r="B18" s="156" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.45">
       <c r="A19" s="158"/>
       <c r="B19" s="156" t="s">
         <v>135</v>
@@ -9215,23 +9218,23 @@
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A20" s="157"/>
       <c r="B20" s="156" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A21" s="159"/>
       <c r="B21" s="160" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A22" s="159"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A23" s="271" t="s">
         <v>86</v>
       </c>
@@ -9239,7 +9242,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="40.9" x14ac:dyDescent="0.45">
       <c r="A24" s="159"/>
       <c r="B24" s="156" t="s">
         <v>87</v>
@@ -9247,13 +9250,13 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A25" s="159"/>
       <c r="B25" s="156"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A26" s="159"/>
       <c r="B26" s="161" t="s">
         <v>88</v>
@@ -9261,7 +9264,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A27" s="159"/>
       <c r="B27" s="156" t="s">
         <v>89</v>
@@ -9269,7 +9272,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.45">
       <c r="A28" s="159"/>
       <c r="B28" s="156" t="s">
         <v>90</v>
@@ -9277,13 +9280,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A29" s="159"/>
       <c r="B29" s="156"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A30" s="159"/>
       <c r="B30" s="161" t="s">
         <v>91</v>
@@ -9291,7 +9294,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A31" s="159"/>
       <c r="B31" s="156" t="s">
         <v>92</v>
@@ -9299,7 +9302,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A32" s="159"/>
       <c r="B32" s="156" t="s">
         <v>93</v>
@@ -9307,13 +9310,13 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A33" s="159"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.45">
       <c r="A34" s="159"/>
       <c r="B34" s="156" t="s">
         <v>94</v>
@@ -9321,7 +9324,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A35" s="159"/>
       <c r="B35" s="162" t="s">
         <v>95</v>
@@ -9329,29 +9332,29 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A36" s="159"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A37" s="271" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="271"/>
     </row>
-    <row r="38" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B38" s="156" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B40" s="156" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="156" t="s">
         <v>98</v>
@@ -9359,37 +9362,37 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="44" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B44" s="156" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B46" s="156" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A48" s="271" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="271"/>
     </row>
-    <row r="49" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="B49" s="156" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="163" t="s">
         <v>9</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="163" t="s">
         <v>11</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="163" t="s">
         <v>13</v>
       </c>
@@ -9413,19 +9416,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A54" s="152"/>
       <c r="B54" s="156" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A55" s="152"/>
       <c r="B55" s="156" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="163" t="s">
         <v>15</v>
       </c>
@@ -9433,19 +9436,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A57" s="152"/>
       <c r="B57" s="156" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A58" s="152"/>
       <c r="B58" s="156" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="163" t="s">
         <v>17</v>
       </c>
@@ -9453,13 +9456,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" s="13" customFormat="1" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A60" s="152"/>
       <c r="B60" s="156" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="163" t="s">
         <v>107</v>
       </c>
@@ -9467,22 +9470,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="164"/>
       <c r="B62" s="156" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" s="13" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A64" s="271" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="271"/>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A65" s="13"/>
       <c r="B65" s="156" t="s">
         <v>110</v>
@@ -9490,16 +9493,16 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A67" s="271" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="271"/>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A68" s="165" t="s">
         <v>4</v>
       </c>
@@ -9509,7 +9512,7 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="A69" s="167"/>
       <c r="B69" s="168" t="s">
         <v>112</v>
@@ -9517,11 +9520,11 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A70" s="167"/>
       <c r="B70" s="169"/>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A71" s="165" t="s">
         <v>4</v>
       </c>
@@ -9531,17 +9534,17 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" s="2" customFormat="1" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A72" s="167"/>
       <c r="B72" s="168" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A73" s="167"/>
       <c r="B73" s="169"/>
     </row>
-    <row r="74" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A74" s="165" t="s">
         <v>4</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A75" s="167"/>
       <c r="B75" s="151" t="s">
         <v>116</v>
@@ -9557,13 +9560,13 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A76" s="164"/>
       <c r="B76" s="164"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A77" s="165" t="s">
         <v>4</v>
       </c>
@@ -9573,17 +9576,17 @@
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A78" s="167"/>
       <c r="B78" s="151" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A79" s="164"/>
       <c r="B79" s="164"/>
     </row>
-    <row r="80" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A80" s="165" t="s">
         <v>4</v>
       </c>
@@ -9591,29 +9594,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A81" s="167"/>
       <c r="B81" s="171" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A82" s="167"/>
       <c r="B82" s="171" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A83" s="167"/>
       <c r="B83" s="171" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A84" s="164"/>
       <c r="B84" s="172"/>
     </row>
-    <row r="85" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A85" s="165" t="s">
         <v>4</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A86" s="167"/>
       <c r="B86" s="151" t="s">
         <v>124</v>
@@ -9629,7 +9632,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A87" s="167"/>
       <c r="B87" s="173" t="s">
         <v>125</v>
@@ -9637,7 +9640,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A88" s="167"/>
       <c r="B88" s="174" t="s">
         <v>126</v>
@@ -9645,11 +9648,11 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A89" s="164"/>
       <c r="B89" s="164"/>
     </row>
-    <row r="90" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A90" s="165" t="s">
         <v>4</v>
       </c>
@@ -9657,13 +9660,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="A91" s="152"/>
       <c r="B91" s="171" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="20" t="s">
         <v>52</v>
       </c>
@@ -9679,9 +9682,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9691,8 +9694,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C46"/>
@@ -9701,183 +9704,183 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.46484375" style="9" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="55.1328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C7" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C13" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B22" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://www.vertex42.com/blog/business/pm/new-gantt-chart-for-excel-online.html"/>
-    <hyperlink ref="B46" r:id="rId3" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://www.vertex42.com/blog/business/pm/new-gantt-chart-for-excel-online.html" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B46" r:id="rId3" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" orientation="portrait" r:id="rId4"/>
@@ -9886,21 +9889,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="5.46484375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="82.1328125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>50</v>
       </c>
@@ -9908,171 +9911,171 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="32"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
